--- a/frontend/Book1.xlsx
+++ b/frontend/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\merkle-airdrop\frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678CE136-4C51-48BB-8A8A-DF0C9B336064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E651E1-88CF-42A9-8EEE-A497A5FDDF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{15870D55-5569-49B4-8DD5-7799EC2C25BF}"/>
   </bookViews>
@@ -398,7 +398,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -411,7 +411,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -419,7 +419,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -427,7 +427,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
